--- a/SUPManual.xlsx
+++ b/SUPManual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRANSITUS25\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B400C881-56CA-4DE7-A1C0-D3711320827D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47231BC6-BBE5-4E21-8A60-FDE73D5AF721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -616,7 +616,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,10 +1036,7 @@
         <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -1068,10 +1065,7 @@
         <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
